--- a/biology/Médecine/Nerf_cutané_médial_du_bras/Nerf_cutané_médial_du_bras.xlsx
+++ b/biology/Médecine/Nerf_cutané_médial_du_bras/Nerf_cutané_médial_du_bras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_m%C3%A9dial_du_bras</t>
+          <t>Nerf_cutané_médial_du_bras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané médial du bras (ou nerf accessoire du brachial cutané interne ou nerf cutané brachial médial) est un nerf sensitif du membre supérieur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_m%C3%A9dial_du_bras</t>
+          <t>Nerf_cutané_médial_du_bras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané médial du bras est la plus petite branche du plexus brachial. Il nait de son faisceau médial, au-dessus du nerf cutané médial de l'avant-bras. Ses fibres viennent de D1.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_m%C3%A9dial_du_bras</t>
+          <t>Nerf_cutané_médial_du_bras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané médial du bras traverse le creux axillaire en arrière puis en dedans de la veine axillaire. Il y reçoit une anastomose du deuxième nerf intercostal.
 Il pénètre dans la partie interne de la loge brachiale antérieure le long du côté médial de l'artère brachiale, puis il perce le fascia brachial pour devenir sous-cutané.
